--- a/Code/Results/Cases/Case_5_84/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_84/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.73148204886054</v>
+        <v>13.99924139758921</v>
       </c>
       <c r="C2">
-        <v>6.211892273758175</v>
+        <v>6.361664125099642</v>
       </c>
       <c r="D2">
-        <v>5.474644641227181</v>
+        <v>8.045919013763553</v>
       </c>
       <c r="E2">
-        <v>7.586799925495029</v>
+        <v>12.61410445800589</v>
       </c>
       <c r="F2">
-        <v>23.62084792258996</v>
+        <v>36.2323774264139</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>16.72927630909346</v>
+        <v>27.12140291937764</v>
       </c>
       <c r="J2">
-        <v>5.69635666308172</v>
+        <v>9.893607410861501</v>
       </c>
       <c r="K2">
-        <v>10.98419052496538</v>
+        <v>11.25973831386665</v>
       </c>
       <c r="L2">
-        <v>6.957696194778521</v>
+        <v>11.15898360159033</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.30424656827618</v>
+        <v>20.53014082243464</v>
       </c>
       <c r="O2">
-        <v>17.56266330424965</v>
+        <v>27.93921226684159</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.90892155076915</v>
+        <v>13.80182180899699</v>
       </c>
       <c r="C3">
-        <v>6.025853962922303</v>
+        <v>6.298212151884246</v>
       </c>
       <c r="D3">
-        <v>5.298638970452017</v>
+        <v>8.029415387163716</v>
       </c>
       <c r="E3">
-        <v>7.536103991323914</v>
+        <v>12.63012674708947</v>
       </c>
       <c r="F3">
-        <v>23.48397315665342</v>
+        <v>36.31096809774417</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>16.85291385386078</v>
+        <v>27.2078781511722</v>
       </c>
       <c r="J3">
-        <v>5.734527150380071</v>
+        <v>9.911393326257361</v>
       </c>
       <c r="K3">
-        <v>10.29630561424791</v>
+        <v>11.12130971306556</v>
       </c>
       <c r="L3">
-        <v>6.827966794311299</v>
+        <v>11.15848792935492</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.49062897756269</v>
+        <v>20.58736145625739</v>
       </c>
       <c r="O3">
-        <v>17.59612945678223</v>
+        <v>28.0181076383436</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.37954676894975</v>
+        <v>13.68148359534498</v>
       </c>
       <c r="C4">
-        <v>5.9083284417961</v>
+        <v>6.258371957167349</v>
       </c>
       <c r="D4">
-        <v>5.189404029321713</v>
+        <v>8.020352362113185</v>
       </c>
       <c r="E4">
-        <v>7.507758629386179</v>
+        <v>12.64144690360763</v>
       </c>
       <c r="F4">
-        <v>23.41581174317556</v>
+        <v>36.36595609200749</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>16.93854964052941</v>
+        <v>27.26507884983396</v>
       </c>
       <c r="J4">
-        <v>5.759181923127206</v>
+        <v>9.922986257986219</v>
       </c>
       <c r="K4">
-        <v>9.849818094536564</v>
+        <v>11.03714018040991</v>
       </c>
       <c r="L4">
-        <v>6.749621463920293</v>
+        <v>11.15955070620223</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.60781794871827</v>
+        <v>20.6241636159496</v>
       </c>
       <c r="O4">
-        <v>17.6282214102226</v>
+        <v>28.07121664278721</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.15784864183484</v>
+        <v>13.63272346479568</v>
       </c>
       <c r="C5">
-        <v>5.85964383294615</v>
+        <v>6.241922560646859</v>
       </c>
       <c r="D5">
-        <v>5.144663925279819</v>
+        <v>8.016930988503656</v>
       </c>
       <c r="E5">
-        <v>7.496906754815925</v>
+        <v>12.64643330601867</v>
       </c>
       <c r="F5">
-        <v>23.39194610373163</v>
+        <v>36.39005591659537</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>16.97581485981045</v>
+        <v>27.28942094007816</v>
       </c>
       <c r="J5">
-        <v>5.769534958057037</v>
+        <v>9.927879950347396</v>
       </c>
       <c r="K5">
-        <v>9.66180990593136</v>
+        <v>11.00308519917003</v>
       </c>
       <c r="L5">
-        <v>6.718058808893936</v>
+        <v>11.16032879750205</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.65628184951433</v>
+        <v>20.63958154309439</v>
       </c>
       <c r="O5">
-        <v>17.64410889737505</v>
+        <v>28.09403195708266</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.12067989323991</v>
+        <v>13.62464540045794</v>
       </c>
       <c r="C6">
-        <v>5.85151311448335</v>
+        <v>6.239178426502607</v>
       </c>
       <c r="D6">
-        <v>5.137223278970112</v>
+        <v>8.016379370010773</v>
       </c>
       <c r="E6">
-        <v>7.495146996318422</v>
+        <v>12.64728385996028</v>
       </c>
       <c r="F6">
-        <v>23.38821688079353</v>
+        <v>36.39415981033879</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>16.98214355971702</v>
+        <v>27.29352528300624</v>
       </c>
       <c r="J6">
-        <v>5.771272548673279</v>
+        <v>9.928702792736271</v>
       </c>
       <c r="K6">
-        <v>9.630225546378403</v>
+        <v>10.99744625574508</v>
       </c>
       <c r="L6">
-        <v>6.712840824332076</v>
+        <v>11.16047887015136</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.66437251901114</v>
+        <v>20.64216712565747</v>
       </c>
       <c r="O6">
-        <v>17.64691399599674</v>
+        <v>28.09789124916151</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.37658084409362</v>
+        <v>13.68082479454695</v>
       </c>
       <c r="C7">
-        <v>5.907675019123174</v>
+        <v>6.2581509725288</v>
       </c>
       <c r="D7">
-        <v>5.188801471043416</v>
+        <v>8.0203051159181</v>
       </c>
       <c r="E7">
-        <v>7.507609448082173</v>
+        <v>12.64151263955469</v>
       </c>
       <c r="F7">
-        <v>23.41547416266857</v>
+        <v>36.36627426264709</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>16.93904272349251</v>
+        <v>27.26540295557463</v>
       </c>
       <c r="J7">
-        <v>5.759320308982967</v>
+        <v>9.923051569258066</v>
       </c>
       <c r="K7">
-        <v>9.847307077826738</v>
+        <v>11.03667986320947</v>
       </c>
       <c r="L7">
-        <v>6.749194280857336</v>
+        <v>11.15955980136432</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.60846865921943</v>
+        <v>20.62436984231998</v>
       </c>
       <c r="O7">
-        <v>17.62842442028838</v>
+        <v>28.07151958960301</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.45298512463135</v>
+        <v>13.9310235597562</v>
       </c>
       <c r="C8">
-        <v>6.148451681109815</v>
+        <v>6.339972895055588</v>
       </c>
       <c r="D8">
-        <v>5.414238978612898</v>
+        <v>8.040008133824871</v>
       </c>
       <c r="E8">
-        <v>7.568742548021135</v>
+        <v>12.61932162937032</v>
       </c>
       <c r="F8">
-        <v>23.57031006764564</v>
+        <v>36.25807734114375</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>16.76984160805716</v>
+        <v>27.15036781110021</v>
       </c>
       <c r="J8">
-        <v>5.709264892217242</v>
+        <v>9.899600710571562</v>
       </c>
       <c r="K8">
-        <v>10.75201508941851</v>
+        <v>11.21185895822718</v>
       </c>
       <c r="L8">
-        <v>6.91271456001403</v>
+        <v>11.15852971036876</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.36795109021548</v>
+        <v>20.54952493412331</v>
       </c>
       <c r="O8">
-        <v>17.57175050133198</v>
+        <v>27.96544644021783</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.36625053762375</v>
+        <v>14.42609578587068</v>
       </c>
       <c r="C9">
-        <v>6.593022718005096</v>
+        <v>6.493131670590581</v>
       </c>
       <c r="D9">
-        <v>5.844359563538375</v>
+        <v>8.087009822689211</v>
       </c>
       <c r="E9">
-        <v>7.710677103848762</v>
+        <v>12.58754101516121</v>
       </c>
       <c r="F9">
-        <v>24.00328029503113</v>
+        <v>36.09937763561176</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>16.51878423584107</v>
+        <v>26.9573421680558</v>
       </c>
       <c r="J9">
-        <v>5.620784691750194</v>
+        <v>9.858929069082972</v>
       </c>
       <c r="K9">
-        <v>12.33492904965764</v>
+        <v>11.56030456700002</v>
       </c>
       <c r="L9">
-        <v>7.242253520276025</v>
+        <v>11.16730044604803</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.91729874281005</v>
+        <v>20.4159370847742</v>
       </c>
       <c r="O9">
-        <v>17.55638079798295</v>
+        <v>27.79449176712506</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.69187314481549</v>
+        <v>14.78917022560758</v>
       </c>
       <c r="C10">
-        <v>6.901197822370622</v>
+        <v>6.600811010715073</v>
       </c>
       <c r="D10">
-        <v>6.149838453064341</v>
+        <v>8.126459528955239</v>
       </c>
       <c r="E10">
-        <v>7.828314781975037</v>
+        <v>12.57130983079086</v>
       </c>
       <c r="F10">
-        <v>24.40428700076392</v>
+        <v>36.01543850277299</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>16.38876965214003</v>
+        <v>26.83536054131724</v>
       </c>
       <c r="J10">
-        <v>5.561704595660268</v>
+        <v>9.832261652052688</v>
       </c>
       <c r="K10">
-        <v>13.38207112471344</v>
+        <v>11.81712152375048</v>
       </c>
       <c r="L10">
-        <v>7.487801595203616</v>
+        <v>11.18024224746065</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.59781262715307</v>
+        <v>20.32574744413262</v>
       </c>
       <c r="O10">
-        <v>17.60918855173874</v>
+        <v>27.69151239848753</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.28797265193818</v>
+        <v>14.95350794583671</v>
       </c>
       <c r="C11">
-        <v>7.03712021497242</v>
+        <v>6.648663129478225</v>
       </c>
       <c r="D11">
-        <v>6.285947703369123</v>
+        <v>8.145431851618554</v>
       </c>
       <c r="E11">
-        <v>7.884696785166353</v>
+        <v>12.56546295852031</v>
       </c>
       <c r="F11">
-        <v>24.60543660978091</v>
+        <v>35.98435089938584</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>16.3426448705481</v>
+        <v>26.7841720196384</v>
       </c>
       <c r="J11">
-        <v>5.536122733065152</v>
+        <v>9.820822272756704</v>
       </c>
       <c r="K11">
-        <v>13.83355558288996</v>
+        <v>11.9336743279518</v>
       </c>
       <c r="L11">
-        <v>7.599857835090019</v>
+        <v>11.18752162232018</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.45471304008943</v>
+        <v>20.28642881265313</v>
       </c>
       <c r="O11">
-        <v>17.64835020354643</v>
+        <v>27.64958219251858</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.50888573736924</v>
+        <v>15.01556370951038</v>
       </c>
       <c r="C12">
-        <v>7.087959030254051</v>
+        <v>6.666614043326772</v>
       </c>
       <c r="D12">
-        <v>6.337037600220191</v>
+        <v>8.152759928950349</v>
       </c>
       <c r="E12">
-        <v>7.906455410588725</v>
+        <v>12.56346909467981</v>
       </c>
       <c r="F12">
-        <v>24.68434860284636</v>
+        <v>35.97359939923598</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>16.32715551608402</v>
+        <v>26.76540668667843</v>
       </c>
       <c r="J12">
-        <v>5.526622608280267</v>
+        <v>9.816589528472925</v>
       </c>
       <c r="K12">
-        <v>14.00097089320767</v>
+        <v>11.97773307597781</v>
       </c>
       <c r="L12">
-        <v>7.642310732193174</v>
+        <v>11.19047649042017</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.40082265725525</v>
+        <v>20.27178439067902</v>
       </c>
       <c r="O12">
-        <v>17.66545569433179</v>
+        <v>27.63441159304872</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46152164079014</v>
+        <v>15.00220756894009</v>
       </c>
       <c r="C13">
-        <v>7.077038346573477</v>
+        <v>6.662755645579077</v>
       </c>
       <c r="D13">
-        <v>6.326055168269991</v>
+        <v>8.151175370864157</v>
       </c>
       <c r="E13">
-        <v>7.901751231799806</v>
+        <v>12.56388872728074</v>
       </c>
       <c r="F13">
-        <v>24.66723089010496</v>
+        <v>35.97586953137446</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>16.33040177851192</v>
+        <v>26.76942062077646</v>
       </c>
       <c r="J13">
-        <v>5.52866028621396</v>
+        <v>9.817496724091807</v>
       </c>
       <c r="K13">
-        <v>13.96507257841889</v>
+        <v>11.96824826441023</v>
       </c>
       <c r="L13">
-        <v>7.633167346819664</v>
+        <v>11.18983131670961</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.41241603125011</v>
+        <v>20.27492746329231</v>
       </c>
       <c r="O13">
-        <v>17.66166893970022</v>
+        <v>27.63764737983387</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.30624357500134</v>
+        <v>14.95861714220864</v>
       </c>
       <c r="C14">
-        <v>7.04131551449661</v>
+        <v>6.650143400711168</v>
       </c>
       <c r="D14">
-        <v>6.290160170701592</v>
+        <v>8.146031880656727</v>
       </c>
       <c r="E14">
-        <v>7.886478730889124</v>
+        <v>12.56529451315821</v>
       </c>
       <c r="F14">
-        <v>24.61187356117894</v>
+        <v>35.98344591060278</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>16.34133031216754</v>
+        <v>26.78261578520328</v>
       </c>
       <c r="J14">
-        <v>5.535337393951838</v>
+        <v>9.820472058347685</v>
       </c>
       <c r="K14">
-        <v>13.84739998279376</v>
+        <v>11.9373008293455</v>
       </c>
       <c r="L14">
-        <v>7.603350239848713</v>
+        <v>11.18776075732548</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.45027360470268</v>
+        <v>20.28521910939808</v>
       </c>
       <c r="O14">
-        <v>17.64971130902082</v>
+        <v>27.64831991644391</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.21050535742432</v>
+        <v>14.93189226543229</v>
       </c>
       <c r="C15">
-        <v>7.019351453665795</v>
+        <v>6.642395742408344</v>
       </c>
       <c r="D15">
-        <v>6.268113486349694</v>
+        <v>8.142899935161326</v>
       </c>
       <c r="E15">
-        <v>7.877176874679163</v>
+        <v>12.5661842532084</v>
       </c>
       <c r="F15">
-        <v>24.57832387144688</v>
+        <v>35.98821958759653</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>16.34828501664971</v>
+        <v>26.79077877364103</v>
       </c>
       <c r="J15">
-        <v>5.539451726169723</v>
+        <v>9.822307431244234</v>
       </c>
       <c r="K15">
-        <v>13.77486029477994</v>
+        <v>11.91833346353717</v>
       </c>
       <c r="L15">
-        <v>7.585088059092128</v>
+        <v>11.18651825110405</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.47350060058479</v>
+        <v>20.29155487402128</v>
       </c>
       <c r="O15">
-        <v>17.64268621123382</v>
+        <v>27.65494930198456</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.65224007333568</v>
+        <v>14.77840886285238</v>
       </c>
       <c r="C16">
-        <v>6.892227445780798</v>
+        <v>6.597660394053187</v>
       </c>
       <c r="D16">
-        <v>6.140882306488723</v>
+        <v>8.125239965374353</v>
       </c>
       <c r="E16">
-        <v>7.82468743022164</v>
+        <v>12.57172279697084</v>
       </c>
       <c r="F16">
-        <v>24.3915225060767</v>
+        <v>36.01761297924095</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>16.3920548729457</v>
+        <v>26.83879239742061</v>
       </c>
       <c r="J16">
-        <v>5.563402558565953</v>
+        <v>9.833023130348289</v>
       </c>
       <c r="K16">
-        <v>13.35206713283461</v>
+        <v>11.80949574802269</v>
       </c>
       <c r="L16">
-        <v>7.480482869875675</v>
+        <v>11.17979437951206</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.60720756260027</v>
+        <v>20.32835130830458</v>
       </c>
       <c r="O16">
-        <v>17.60694235365887</v>
+        <v>27.69435160373715</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.30113371956815</v>
+        <v>14.68399926080099</v>
       </c>
       <c r="C17">
-        <v>6.813133700040741</v>
+        <v>6.569921865461533</v>
       </c>
       <c r="D17">
-        <v>6.062067948643308</v>
+        <v>8.114666297803602</v>
       </c>
       <c r="E17">
-        <v>7.793218441220075</v>
+        <v>12.57551358774923</v>
       </c>
       <c r="F17">
-        <v>24.28175893245132</v>
+        <v>36.03746275569918</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>16.42231418136301</v>
+        <v>26.86934899233867</v>
       </c>
       <c r="J17">
-        <v>5.578427762976378</v>
+        <v>9.839773774186162</v>
       </c>
       <c r="K17">
-        <v>13.08634423089308</v>
+        <v>11.74262984626281</v>
       </c>
       <c r="L17">
-        <v>7.416378946834984</v>
+        <v>11.17602476366889</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.68978906767959</v>
+        <v>20.35136169952451</v>
       </c>
       <c r="O17">
-        <v>17.5889627584663</v>
+        <v>27.71978309667517</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.09600105065133</v>
+        <v>14.62962281444251</v>
       </c>
       <c r="C18">
-        <v>6.767240212103848</v>
+        <v>6.553861272011763</v>
       </c>
       <c r="D18">
-        <v>6.016469447574615</v>
+        <v>8.108681464106819</v>
       </c>
       <c r="E18">
-        <v>7.775388567923974</v>
+        <v>12.5778386475295</v>
       </c>
       <c r="F18">
-        <v>24.22038631398033</v>
+        <v>36.04954780730768</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>16.44093745381343</v>
+        <v>26.88732921228938</v>
       </c>
       <c r="J18">
-        <v>5.587191581541686</v>
+        <v>9.843721700070628</v>
       </c>
       <c r="K18">
-        <v>12.93116532575153</v>
+        <v>11.70414671730709</v>
       </c>
       <c r="L18">
-        <v>7.379543262015479</v>
+        <v>11.17398772759194</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.73749971663453</v>
+        <v>20.36475759896237</v>
       </c>
       <c r="O18">
-        <v>17.58004047853817</v>
+        <v>27.73487326909857</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.02958857856461</v>
+        <v>14.61120083330201</v>
       </c>
       <c r="C19">
-        <v>6.751633233492427</v>
+        <v>6.548405417370621</v>
       </c>
       <c r="D19">
-        <v>6.000986138077044</v>
+        <v>8.106671855306908</v>
       </c>
       <c r="E19">
-        <v>7.769398222608448</v>
+        <v>12.57865074732868</v>
       </c>
       <c r="F19">
-        <v>24.19990741076204</v>
+        <v>36.05375431409635</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>16.44744919646533</v>
+        <v>26.89348654062731</v>
       </c>
       <c r="J19">
-        <v>5.590179734492877</v>
+        <v>9.84506959824709</v>
       </c>
       <c r="K19">
-        <v>12.87822148955815</v>
+        <v>11.69111409903734</v>
       </c>
       <c r="L19">
-        <v>7.367078367775096</v>
+        <v>11.17332060155988</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.75369081315766</v>
+        <v>20.36932089331878</v>
       </c>
       <c r="O19">
-        <v>17.57726025449631</v>
+        <v>27.74006198349479</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.33883896025239</v>
+        <v>14.69405745391376</v>
       </c>
       <c r="C20">
-        <v>6.821594995262985</v>
+        <v>6.572885713387898</v>
       </c>
       <c r="D20">
-        <v>6.070485775592795</v>
+        <v>8.115781886088802</v>
       </c>
       <c r="E20">
-        <v>7.7965404287846</v>
+        <v>12.57509508140073</v>
       </c>
       <c r="F20">
-        <v>24.29326088382436</v>
+        <v>36.03528057671291</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>16.41896612632817</v>
+        <v>26.86605428694722</v>
       </c>
       <c r="J20">
-        <v>5.576815699518133</v>
+        <v>9.839048418214173</v>
       </c>
       <c r="K20">
-        <v>13.11487312748826</v>
+        <v>11.74975055807828</v>
       </c>
       <c r="L20">
-        <v>7.423199510404414</v>
+        <v>11.17641248555065</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.68097635367087</v>
+        <v>20.34889555615351</v>
       </c>
       <c r="O20">
-        <v>17.59072912593516</v>
+        <v>27.71702798370463</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.35198286428762</v>
+        <v>14.97142590725877</v>
       </c>
       <c r="C21">
-        <v>7.051825458345201</v>
+        <v>6.653852580864676</v>
       </c>
       <c r="D21">
-        <v>6.300715963878941</v>
+        <v>8.147538781344869</v>
       </c>
       <c r="E21">
-        <v>7.890953599792703</v>
+        <v>12.56487562939777</v>
       </c>
       <c r="F21">
-        <v>24.62805861002272</v>
+        <v>35.98119284280445</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>16.33806582210927</v>
+        <v>26.77872325483293</v>
       </c>
       <c r="J21">
-        <v>5.533371076124849</v>
+        <v>9.819595443961511</v>
       </c>
       <c r="K21">
-        <v>13.88205947383791</v>
+        <v>11.9463932347314</v>
       </c>
       <c r="L21">
-        <v>7.612107954563885</v>
+        <v>11.18836356357227</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.43914601287952</v>
+        <v>20.2821895711436</v>
       </c>
       <c r="O21">
-        <v>17.65316100698545</v>
+        <v>27.6451659290589</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.98607685570239</v>
+        <v>15.15165525765903</v>
       </c>
       <c r="C22">
-        <v>7.198604282435861</v>
+        <v>6.70577723186904</v>
       </c>
       <c r="D22">
-        <v>6.448536237476846</v>
+        <v>8.169129237766555</v>
       </c>
       <c r="E22">
-        <v>7.95503374441002</v>
+        <v>12.55947984903793</v>
       </c>
       <c r="F22">
-        <v>24.86286301809223</v>
+        <v>35.95179267687945</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>16.2967684864646</v>
+        <v>26.72525338307703</v>
       </c>
       <c r="J22">
-        <v>5.506069122043541</v>
+        <v>9.807459262639782</v>
       </c>
       <c r="K22">
-        <v>14.36276921520203</v>
+        <v>12.07444338213865</v>
       </c>
       <c r="L22">
-        <v>7.735671889880718</v>
+        <v>11.19732934977735</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.28282304677157</v>
+        <v>20.24001910613133</v>
       </c>
       <c r="O22">
-        <v>17.70727421225128</v>
+        <v>27.60232376598799</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.65020045639328</v>
+        <v>15.05557741817676</v>
       </c>
       <c r="C23">
-        <v>7.120608457140531</v>
+        <v>6.678157052358926</v>
       </c>
       <c r="D23">
-        <v>6.369896390324908</v>
+        <v>8.157530896347714</v>
       </c>
       <c r="E23">
-        <v>7.920617173583672</v>
+        <v>12.56224252841813</v>
       </c>
       <c r="F23">
-        <v>24.73606571175351</v>
+        <v>35.9669397528428</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>16.31771472868688</v>
+        <v>26.75346127858113</v>
       </c>
       <c r="J23">
-        <v>5.520540395010379</v>
+        <v>9.813883855887017</v>
       </c>
       <c r="K23">
-        <v>14.10808996009308</v>
+        <v>12.00615559000896</v>
       </c>
       <c r="L23">
-        <v>7.669724063363895</v>
+        <v>11.19243909205118</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.36610554191111</v>
+        <v>20.26239617267866</v>
       </c>
       <c r="O23">
-        <v>17.67714268495684</v>
+        <v>27.62481192294606</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.32180263133747</v>
+        <v>14.6895104491811</v>
       </c>
       <c r="C24">
-        <v>6.817770954954977</v>
+        <v>6.571546110272873</v>
       </c>
       <c r="D24">
-        <v>6.066680967023084</v>
+        <v>8.115277235202113</v>
       </c>
       <c r="E24">
-        <v>7.795037741592474</v>
+        <v>12.57528383428297</v>
       </c>
       <c r="F24">
-        <v>24.28805546073563</v>
+        <v>36.03626504304078</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>16.42047596871675</v>
+        <v>26.86754253733247</v>
       </c>
       <c r="J24">
-        <v>5.57754412218416</v>
+        <v>9.839376143263252</v>
       </c>
       <c r="K24">
-        <v>13.10198272565306</v>
+        <v>11.74653140917466</v>
       </c>
       <c r="L24">
-        <v>7.420115873535854</v>
+        <v>11.17623679089928</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.68495985281295</v>
+        <v>20.35000997954116</v>
       </c>
       <c r="O24">
-        <v>17.58992615307102</v>
+        <v>27.71827210858207</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.87034262134271</v>
+        <v>14.29204114661028</v>
       </c>
       <c r="C25">
-        <v>6.475891306602137</v>
+        <v>6.452520881846188</v>
       </c>
       <c r="D25">
-        <v>5.729636612517544</v>
+        <v>8.073417207532975</v>
       </c>
       <c r="E25">
-        <v>7.669924419299447</v>
+        <v>12.5948857126964</v>
       </c>
       <c r="F25">
-        <v>23.87185669724197</v>
+        <v>36.13657824024493</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>16.57753441042747</v>
+        <v>27.00607662572105</v>
       </c>
       <c r="J25">
-        <v>5.643682581859726</v>
+        <v>9.869365514692667</v>
       </c>
       <c r="K25">
-        <v>11.92712322470067</v>
+        <v>11.4657408058245</v>
       </c>
       <c r="L25">
-        <v>7.152361684568619</v>
+        <v>11.16378038829153</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.03708371343051</v>
+        <v>20.45067305953376</v>
       </c>
       <c r="O25">
-        <v>17.54969531405602</v>
+        <v>27.83676911625497</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_84/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_84/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.99924139758921</v>
+        <v>13.73148204886056</v>
       </c>
       <c r="C2">
-        <v>6.361664125099642</v>
+        <v>6.211892273758401</v>
       </c>
       <c r="D2">
-        <v>8.045919013763553</v>
+        <v>5.474644641227207</v>
       </c>
       <c r="E2">
-        <v>12.61410445800589</v>
+        <v>7.586799925495033</v>
       </c>
       <c r="F2">
-        <v>36.2323774264139</v>
+        <v>23.62084792259001</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>27.12140291937764</v>
+        <v>16.72927630909352</v>
       </c>
       <c r="J2">
-        <v>9.893607410861501</v>
+        <v>5.696356663081654</v>
       </c>
       <c r="K2">
-        <v>11.25973831386665</v>
+        <v>10.98419052496538</v>
       </c>
       <c r="L2">
-        <v>11.15898360159033</v>
+        <v>6.957696194778479</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.53014082243464</v>
+        <v>13.30424656827617</v>
       </c>
       <c r="O2">
-        <v>27.93921226684159</v>
+        <v>17.56266330424966</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.80182180899699</v>
+        <v>12.90892155076916</v>
       </c>
       <c r="C3">
-        <v>6.298212151884246</v>
+        <v>6.025853962922404</v>
       </c>
       <c r="D3">
-        <v>8.029415387163716</v>
+        <v>5.298638970452102</v>
       </c>
       <c r="E3">
-        <v>12.63012674708947</v>
+        <v>7.536103991323915</v>
       </c>
       <c r="F3">
-        <v>36.31096809774417</v>
+        <v>23.48397315665352</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>27.2078781511722</v>
+        <v>16.85291385386082</v>
       </c>
       <c r="J3">
-        <v>9.911393326257361</v>
+        <v>5.73452715038004</v>
       </c>
       <c r="K3">
-        <v>11.12130971306556</v>
+        <v>10.29630561424794</v>
       </c>
       <c r="L3">
-        <v>11.15848792935492</v>
+        <v>6.827966794311319</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.58736145625739</v>
+        <v>13.49062897756276</v>
       </c>
       <c r="O3">
-        <v>28.0181076383436</v>
+        <v>17.59612945678226</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.68148359534498</v>
+        <v>12.37954676894976</v>
       </c>
       <c r="C4">
-        <v>6.258371957167349</v>
+        <v>5.908328441795978</v>
       </c>
       <c r="D4">
-        <v>8.020352362113185</v>
+        <v>5.189404029321644</v>
       </c>
       <c r="E4">
-        <v>12.64144690360763</v>
+        <v>7.507758629386117</v>
       </c>
       <c r="F4">
-        <v>36.36595609200749</v>
+        <v>23.41581174317568</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>27.26507884983396</v>
+        <v>16.93854964052948</v>
       </c>
       <c r="J4">
-        <v>9.922986257986219</v>
+        <v>5.759181923127206</v>
       </c>
       <c r="K4">
-        <v>11.03714018040991</v>
+        <v>9.849818094536525</v>
       </c>
       <c r="L4">
-        <v>11.15955070620223</v>
+        <v>6.749621463920359</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.6241636159496</v>
+        <v>13.6078179487183</v>
       </c>
       <c r="O4">
-        <v>28.07121664278721</v>
+        <v>17.62822141022273</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.63272346479568</v>
+        <v>12.1578486418349</v>
       </c>
       <c r="C5">
-        <v>6.241922560646859</v>
+        <v>5.859643832946002</v>
       </c>
       <c r="D5">
-        <v>8.016930988503656</v>
+        <v>5.144663925279731</v>
       </c>
       <c r="E5">
-        <v>12.64643330601867</v>
+        <v>7.496906754815877</v>
       </c>
       <c r="F5">
-        <v>36.39005591659537</v>
+        <v>23.39194610373193</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>27.28942094007816</v>
+        <v>16.97581485981068</v>
       </c>
       <c r="J5">
-        <v>9.927879950347396</v>
+        <v>5.769534958057072</v>
       </c>
       <c r="K5">
-        <v>11.00308519917003</v>
+        <v>9.661809905931307</v>
       </c>
       <c r="L5">
-        <v>11.16032879750205</v>
+        <v>6.718058808893942</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.63958154309439</v>
+        <v>13.65628184951447</v>
       </c>
       <c r="O5">
-        <v>28.09403195708266</v>
+        <v>17.64410889737533</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.62464540045794</v>
+        <v>12.12067989323988</v>
       </c>
       <c r="C6">
-        <v>6.239178426502607</v>
+        <v>5.851513114483333</v>
       </c>
       <c r="D6">
-        <v>8.016379370010773</v>
+        <v>5.137223278970112</v>
       </c>
       <c r="E6">
-        <v>12.64728385996028</v>
+        <v>7.495146996318545</v>
       </c>
       <c r="F6">
-        <v>36.39415981033879</v>
+        <v>23.38821688079358</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>27.29352528300624</v>
+        <v>16.98214355971709</v>
       </c>
       <c r="J6">
-        <v>9.928702792736271</v>
+        <v>5.771272548673346</v>
       </c>
       <c r="K6">
-        <v>10.99744625574508</v>
+        <v>9.63022554637843</v>
       </c>
       <c r="L6">
-        <v>11.16047887015136</v>
+        <v>6.712840824332105</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.64216712565747</v>
+        <v>13.66437251901121</v>
       </c>
       <c r="O6">
-        <v>28.09789124916151</v>
+        <v>17.6469139959968</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.68082479454695</v>
+        <v>12.37658084409358</v>
       </c>
       <c r="C7">
-        <v>6.2581509725288</v>
+        <v>5.907675019122942</v>
       </c>
       <c r="D7">
-        <v>8.0203051159181</v>
+        <v>5.188801471043329</v>
       </c>
       <c r="E7">
-        <v>12.64151263955469</v>
+        <v>7.507609448082104</v>
       </c>
       <c r="F7">
-        <v>36.36627426264709</v>
+        <v>23.41547416266827</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>27.26540295557463</v>
+        <v>16.93904272349226</v>
       </c>
       <c r="J7">
-        <v>9.923051569258066</v>
+        <v>5.759320308982929</v>
       </c>
       <c r="K7">
-        <v>11.03667986320947</v>
+        <v>9.847307077826747</v>
       </c>
       <c r="L7">
-        <v>11.15955980136432</v>
+        <v>6.749194280857377</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.62436984231998</v>
+        <v>13.60846865921932</v>
       </c>
       <c r="O7">
-        <v>28.07151958960301</v>
+        <v>17.62842442028819</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.9310235597562</v>
+        <v>13.45298512463133</v>
       </c>
       <c r="C8">
-        <v>6.339972895055588</v>
+        <v>6.148451681109469</v>
       </c>
       <c r="D8">
-        <v>8.040008133824871</v>
+        <v>5.414238978612892</v>
       </c>
       <c r="E8">
-        <v>12.61932162937032</v>
+        <v>7.568742548021142</v>
       </c>
       <c r="F8">
-        <v>36.25807734114375</v>
+        <v>23.57031006764538</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>27.15036781110021</v>
+        <v>16.76984160805689</v>
       </c>
       <c r="J8">
-        <v>9.899600710571562</v>
+        <v>5.709264892217241</v>
       </c>
       <c r="K8">
-        <v>11.21185895822718</v>
+        <v>10.75201508941853</v>
       </c>
       <c r="L8">
-        <v>11.15852971036876</v>
+        <v>6.91271456001412</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.54952493412331</v>
+        <v>13.36795109021535</v>
       </c>
       <c r="O8">
-        <v>27.96544644021783</v>
+        <v>17.57175050133178</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.42609578587068</v>
+        <v>15.36625053762378</v>
       </c>
       <c r="C9">
-        <v>6.493131670590581</v>
+        <v>6.593022718005305</v>
       </c>
       <c r="D9">
-        <v>8.087009822689211</v>
+        <v>5.844359563538305</v>
       </c>
       <c r="E9">
-        <v>12.58754101516121</v>
+        <v>7.710677103848801</v>
       </c>
       <c r="F9">
-        <v>36.09937763561176</v>
+        <v>24.00328029503116</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>26.9573421680558</v>
+        <v>16.51878423584121</v>
       </c>
       <c r="J9">
-        <v>9.858929069082972</v>
+        <v>5.620784691750285</v>
       </c>
       <c r="K9">
-        <v>11.56030456700002</v>
+        <v>12.33492904965763</v>
       </c>
       <c r="L9">
-        <v>11.16730044604803</v>
+        <v>7.242253520276014</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.4159370847742</v>
+        <v>12.91729874281008</v>
       </c>
       <c r="O9">
-        <v>27.79449176712506</v>
+        <v>17.55638079798302</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.78917022560758</v>
+        <v>16.69187314481548</v>
       </c>
       <c r="C10">
-        <v>6.600811010715073</v>
+        <v>6.901197822370543</v>
       </c>
       <c r="D10">
-        <v>8.126459528955239</v>
+        <v>6.149838453064357</v>
       </c>
       <c r="E10">
-        <v>12.57130983079086</v>
+        <v>7.828314781975086</v>
       </c>
       <c r="F10">
-        <v>36.01543850277299</v>
+        <v>24.40428700076395</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>26.83536054131724</v>
+        <v>16.38876965214003</v>
       </c>
       <c r="J10">
-        <v>9.832261652052688</v>
+        <v>5.56170459566036</v>
       </c>
       <c r="K10">
-        <v>11.81712152375048</v>
+        <v>13.38207112471343</v>
       </c>
       <c r="L10">
-        <v>11.18024224746065</v>
+        <v>7.487801595203661</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.32574744413262</v>
+        <v>12.59781262715307</v>
       </c>
       <c r="O10">
-        <v>27.69151239848753</v>
+        <v>17.60918855173875</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.95350794583671</v>
+        <v>17.28797265193811</v>
       </c>
       <c r="C11">
-        <v>6.648663129478225</v>
+        <v>7.037120214972642</v>
       </c>
       <c r="D11">
-        <v>8.145431851618554</v>
+        <v>6.285947703369139</v>
       </c>
       <c r="E11">
-        <v>12.56546295852031</v>
+        <v>7.884696785166401</v>
       </c>
       <c r="F11">
-        <v>35.98435089938584</v>
+        <v>24.60543660978107</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>26.7841720196384</v>
+        <v>16.34264487054832</v>
       </c>
       <c r="J11">
-        <v>9.820822272756704</v>
+        <v>5.536122733065217</v>
       </c>
       <c r="K11">
-        <v>11.9336743279518</v>
+        <v>13.83355558288991</v>
       </c>
       <c r="L11">
-        <v>11.18752162232018</v>
+        <v>7.59985783509001</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.28642881265313</v>
+        <v>12.45471304008953</v>
       </c>
       <c r="O11">
-        <v>27.64958219251858</v>
+        <v>17.64835020354659</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.01556370951038</v>
+        <v>17.50888573736923</v>
       </c>
       <c r="C12">
-        <v>6.666614043326772</v>
+        <v>7.087959030253938</v>
       </c>
       <c r="D12">
-        <v>8.152759928950349</v>
+        <v>6.337037600220106</v>
       </c>
       <c r="E12">
-        <v>12.56346909467981</v>
+        <v>7.906455410588725</v>
       </c>
       <c r="F12">
-        <v>35.97359939923598</v>
+        <v>24.68434860284661</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>26.76540668667843</v>
+        <v>16.32715551608431</v>
       </c>
       <c r="J12">
-        <v>9.816589528472925</v>
+        <v>5.526622608280298</v>
       </c>
       <c r="K12">
-        <v>11.97773307597781</v>
+        <v>14.00097089320759</v>
       </c>
       <c r="L12">
-        <v>11.19047649042017</v>
+        <v>7.642310732193194</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.27178439067902</v>
+        <v>12.40082265725541</v>
       </c>
       <c r="O12">
-        <v>27.63441159304872</v>
+        <v>17.66545569433212</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.00220756894009</v>
+        <v>17.46152164079011</v>
       </c>
       <c r="C13">
-        <v>6.662755645579077</v>
+        <v>7.077038346573368</v>
       </c>
       <c r="D13">
-        <v>8.151175370864157</v>
+        <v>6.326055168269948</v>
       </c>
       <c r="E13">
-        <v>12.56388872728074</v>
+        <v>7.901751231799842</v>
       </c>
       <c r="F13">
-        <v>35.97586953137446</v>
+        <v>24.66723089010507</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>26.76942062077646</v>
+        <v>16.33040177851201</v>
       </c>
       <c r="J13">
-        <v>9.817496724091807</v>
+        <v>5.528660286214084</v>
       </c>
       <c r="K13">
-        <v>11.96824826441023</v>
+        <v>13.96507257841887</v>
       </c>
       <c r="L13">
-        <v>11.18983131670961</v>
+        <v>7.633167346819704</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.27492746329231</v>
+        <v>12.41241603125015</v>
       </c>
       <c r="O13">
-        <v>27.63764737983387</v>
+        <v>17.6616689397003</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.95861714220864</v>
+        <v>17.3062435750014</v>
       </c>
       <c r="C14">
-        <v>6.650143400711168</v>
+        <v>7.041315514496366</v>
       </c>
       <c r="D14">
-        <v>8.146031880656727</v>
+        <v>6.290160170701585</v>
       </c>
       <c r="E14">
-        <v>12.56529451315821</v>
+        <v>7.886478730889124</v>
       </c>
       <c r="F14">
-        <v>35.98344591060278</v>
+        <v>24.61187356117908</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>26.78261578520328</v>
+        <v>16.34133031216764</v>
       </c>
       <c r="J14">
-        <v>9.820472058347685</v>
+        <v>5.535337393951901</v>
       </c>
       <c r="K14">
-        <v>11.9373008293455</v>
+        <v>13.84739998279375</v>
       </c>
       <c r="L14">
-        <v>11.18776075732548</v>
+        <v>7.603350239848742</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.28521910939808</v>
+        <v>12.45027360470281</v>
       </c>
       <c r="O14">
-        <v>27.64831991644391</v>
+        <v>17.64971130902099</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.93189226543229</v>
+        <v>17.21050535742435</v>
       </c>
       <c r="C15">
-        <v>6.642395742408344</v>
+        <v>7.019351453665684</v>
       </c>
       <c r="D15">
-        <v>8.142899935161326</v>
+        <v>6.268113486349715</v>
       </c>
       <c r="E15">
-        <v>12.5661842532084</v>
+        <v>7.877176874679059</v>
       </c>
       <c r="F15">
-        <v>35.98821958759653</v>
+        <v>24.57832387144687</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>26.79077877364103</v>
+        <v>16.34828501664963</v>
       </c>
       <c r="J15">
-        <v>9.822307431244234</v>
+        <v>5.539451726169595</v>
       </c>
       <c r="K15">
-        <v>11.91833346353717</v>
+        <v>13.77486029477994</v>
       </c>
       <c r="L15">
-        <v>11.18651825110405</v>
+        <v>7.585088059092144</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.29155487402128</v>
+        <v>12.47350060058472</v>
       </c>
       <c r="O15">
-        <v>27.65494930198456</v>
+        <v>17.64268621123379</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.77840886285238</v>
+        <v>16.6522400733357</v>
       </c>
       <c r="C16">
-        <v>6.597660394053187</v>
+        <v>6.892227445781002</v>
       </c>
       <c r="D16">
-        <v>8.125239965374353</v>
+        <v>6.140882306488741</v>
       </c>
       <c r="E16">
-        <v>12.57172279697084</v>
+        <v>7.824687430221737</v>
       </c>
       <c r="F16">
-        <v>36.01761297924095</v>
+        <v>24.39152250607675</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>26.83879239742061</v>
+        <v>16.39205487294581</v>
       </c>
       <c r="J16">
-        <v>9.833023130348289</v>
+        <v>5.563402558566048</v>
       </c>
       <c r="K16">
-        <v>11.80949574802269</v>
+        <v>13.35206713283463</v>
       </c>
       <c r="L16">
-        <v>11.17979437951206</v>
+        <v>7.480482869875665</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.32835130830458</v>
+        <v>12.60720756260031</v>
       </c>
       <c r="O16">
-        <v>27.69435160373715</v>
+        <v>17.60694235365893</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.68399926080099</v>
+        <v>16.30113371956812</v>
       </c>
       <c r="C17">
-        <v>6.569921865461533</v>
+        <v>6.813133700040955</v>
       </c>
       <c r="D17">
-        <v>8.114666297803602</v>
+        <v>6.06206794864338</v>
       </c>
       <c r="E17">
-        <v>12.57551358774923</v>
+        <v>7.79321844122012</v>
       </c>
       <c r="F17">
-        <v>36.03746275569918</v>
+        <v>24.28175893245147</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>26.86934899233867</v>
+        <v>16.42231418136316</v>
       </c>
       <c r="J17">
-        <v>9.839773774186162</v>
+        <v>5.578427762976348</v>
       </c>
       <c r="K17">
-        <v>11.74262984626281</v>
+        <v>13.0863442308931</v>
       </c>
       <c r="L17">
-        <v>11.17602476366889</v>
+        <v>7.416378946834912</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.35136169952451</v>
+        <v>12.68978906767966</v>
       </c>
       <c r="O17">
-        <v>27.71978309667517</v>
+        <v>17.58896275846635</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.62962281444251</v>
+        <v>16.0960010506513</v>
       </c>
       <c r="C18">
-        <v>6.553861272011763</v>
+        <v>6.767240212103644</v>
       </c>
       <c r="D18">
-        <v>8.108681464106819</v>
+        <v>6.016469447574496</v>
       </c>
       <c r="E18">
-        <v>12.5778386475295</v>
+        <v>7.775388567923927</v>
       </c>
       <c r="F18">
-        <v>36.04954780730768</v>
+        <v>24.22038631398049</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>26.88732921228938</v>
+        <v>16.44093745381358</v>
       </c>
       <c r="J18">
-        <v>9.843721700070628</v>
+        <v>5.58719158154175</v>
       </c>
       <c r="K18">
-        <v>11.70414671730709</v>
+        <v>12.93116532575147</v>
       </c>
       <c r="L18">
-        <v>11.17398772759194</v>
+        <v>7.379543262015501</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.36475759896237</v>
+        <v>12.73749971663459</v>
       </c>
       <c r="O18">
-        <v>27.73487326909857</v>
+        <v>17.58004047853838</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.61120083330201</v>
+        <v>16.02958857856463</v>
       </c>
       <c r="C19">
-        <v>6.548405417370621</v>
+        <v>6.751633233492531</v>
       </c>
       <c r="D19">
-        <v>8.106671855306908</v>
+        <v>6.000986138077104</v>
       </c>
       <c r="E19">
-        <v>12.57865074732868</v>
+        <v>7.769398222608443</v>
       </c>
       <c r="F19">
-        <v>36.05375431409635</v>
+        <v>24.19990741076214</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>26.89348654062731</v>
+        <v>16.44744919646536</v>
       </c>
       <c r="J19">
-        <v>9.84506959824709</v>
+        <v>5.590179734492844</v>
       </c>
       <c r="K19">
-        <v>11.69111409903734</v>
+        <v>12.87822148955811</v>
       </c>
       <c r="L19">
-        <v>11.17332060155988</v>
+        <v>7.367078367775092</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.36932089331878</v>
+        <v>12.75369081315766</v>
       </c>
       <c r="O19">
-        <v>27.74006198349479</v>
+        <v>17.57726025449633</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.69405745391376</v>
+        <v>16.3388389602524</v>
       </c>
       <c r="C20">
-        <v>6.572885713387898</v>
+        <v>6.82159499526276</v>
       </c>
       <c r="D20">
-        <v>8.115781886088802</v>
+        <v>6.070485775592779</v>
       </c>
       <c r="E20">
-        <v>12.57509508140073</v>
+        <v>7.7965404287846</v>
       </c>
       <c r="F20">
-        <v>36.03528057671291</v>
+        <v>24.29326088382452</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>26.86605428694722</v>
+        <v>16.41896612632826</v>
       </c>
       <c r="J20">
-        <v>9.839048418214173</v>
+        <v>5.576815699518137</v>
       </c>
       <c r="K20">
-        <v>11.74975055807828</v>
+        <v>13.11487312748824</v>
       </c>
       <c r="L20">
-        <v>11.17641248555065</v>
+        <v>7.423199510404478</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.34889555615351</v>
+        <v>12.68097635367094</v>
       </c>
       <c r="O20">
-        <v>27.71702798370463</v>
+        <v>17.5907291259353</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.97142590725877</v>
+        <v>17.35198286428757</v>
       </c>
       <c r="C21">
-        <v>6.653852580864676</v>
+        <v>7.051825458345416</v>
       </c>
       <c r="D21">
-        <v>8.147538781344869</v>
+        <v>6.300715963878935</v>
       </c>
       <c r="E21">
-        <v>12.56487562939777</v>
+        <v>7.890953599792693</v>
       </c>
       <c r="F21">
-        <v>35.98119284280445</v>
+        <v>24.6280586100228</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>26.77872325483293</v>
+        <v>16.33806582210934</v>
       </c>
       <c r="J21">
-        <v>9.819595443961511</v>
+        <v>5.533371076124849</v>
       </c>
       <c r="K21">
-        <v>11.9463932347314</v>
+        <v>13.88205947383788</v>
       </c>
       <c r="L21">
-        <v>11.18836356357227</v>
+        <v>7.612107954563846</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.2821895711436</v>
+        <v>12.43914601287952</v>
       </c>
       <c r="O21">
-        <v>27.6451659290589</v>
+        <v>17.65316100698548</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.15165525765903</v>
+        <v>17.98607685570239</v>
       </c>
       <c r="C22">
-        <v>6.70577723186904</v>
+        <v>7.198604282435848</v>
       </c>
       <c r="D22">
-        <v>8.169129237766555</v>
+        <v>6.448536237476753</v>
       </c>
       <c r="E22">
-        <v>12.55947984903793</v>
+        <v>7.955033744409926</v>
       </c>
       <c r="F22">
-        <v>35.95179267687945</v>
+        <v>24.86286301809221</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>26.72525338307703</v>
+        <v>16.29676848646463</v>
       </c>
       <c r="J22">
-        <v>9.807459262639782</v>
+        <v>5.506069122043572</v>
       </c>
       <c r="K22">
-        <v>12.07444338213865</v>
+        <v>14.36276921520202</v>
       </c>
       <c r="L22">
-        <v>11.19732934977735</v>
+        <v>7.735671889880624</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.24001910613133</v>
+        <v>12.2828230467716</v>
       </c>
       <c r="O22">
-        <v>27.60232376598799</v>
+        <v>17.70727421225131</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.05557741817676</v>
+        <v>17.65020045639327</v>
       </c>
       <c r="C23">
-        <v>6.678157052358926</v>
+        <v>7.120608457140632</v>
       </c>
       <c r="D23">
-        <v>8.157530896347714</v>
+        <v>6.3698963903249</v>
       </c>
       <c r="E23">
-        <v>12.56224252841813</v>
+        <v>7.920617173583682</v>
       </c>
       <c r="F23">
-        <v>35.9669397528428</v>
+        <v>24.73606571175358</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>26.75346127858113</v>
+        <v>16.31771472868696</v>
       </c>
       <c r="J23">
-        <v>9.813883855887017</v>
+        <v>5.520540395010388</v>
       </c>
       <c r="K23">
-        <v>12.00615559000896</v>
+        <v>14.1080899600931</v>
       </c>
       <c r="L23">
-        <v>11.19243909205118</v>
+        <v>7.669724063363898</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.26239617267866</v>
+        <v>12.3661055419112</v>
       </c>
       <c r="O23">
-        <v>27.62481192294606</v>
+        <v>17.67714268495692</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.6895104491811</v>
+        <v>16.32180263133746</v>
       </c>
       <c r="C24">
-        <v>6.571546110272873</v>
+        <v>6.81777095495483</v>
       </c>
       <c r="D24">
-        <v>8.115277235202113</v>
+        <v>6.066680967022986</v>
       </c>
       <c r="E24">
-        <v>12.57528383428297</v>
+        <v>7.795037741592386</v>
       </c>
       <c r="F24">
-        <v>36.03626504304078</v>
+        <v>24.2880554607358</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>26.86754253733247</v>
+        <v>16.42047596871691</v>
       </c>
       <c r="J24">
-        <v>9.839376143263252</v>
+        <v>5.577544122184225</v>
       </c>
       <c r="K24">
-        <v>11.74653140917466</v>
+        <v>13.10198272565301</v>
       </c>
       <c r="L24">
-        <v>11.17623679089928</v>
+        <v>7.420115873535849</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.35000997954116</v>
+        <v>12.68495985281298</v>
       </c>
       <c r="O24">
-        <v>27.71827210858207</v>
+        <v>17.58992615307121</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.29204114661028</v>
+        <v>14.87034262134271</v>
       </c>
       <c r="C25">
-        <v>6.452520881846188</v>
+        <v>6.475891306602024</v>
       </c>
       <c r="D25">
-        <v>8.073417207532975</v>
+        <v>5.729636612517522</v>
       </c>
       <c r="E25">
-        <v>12.5948857126964</v>
+        <v>7.669924419299436</v>
       </c>
       <c r="F25">
-        <v>36.13657824024493</v>
+        <v>23.87185669724209</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>27.00607662572105</v>
+        <v>16.57753441042757</v>
       </c>
       <c r="J25">
-        <v>9.869365514692667</v>
+        <v>5.643682581859723</v>
       </c>
       <c r="K25">
-        <v>11.4657408058245</v>
+        <v>11.92712322470064</v>
       </c>
       <c r="L25">
-        <v>11.16378038829153</v>
+        <v>7.152361684568675</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.45067305953376</v>
+        <v>13.03708371343058</v>
       </c>
       <c r="O25">
-        <v>27.83676911625497</v>
+        <v>17.54969531405614</v>
       </c>
     </row>
   </sheetData>
